--- a/humor/customer-service.xlsx
+++ b/humor/customer-service.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>祝你生活愉快，再见</t>
   </si>
@@ -74,6 +74,58 @@
   </si>
   <si>
     <t>问：你帮我洗个枣吧。答：不可以。问：帮我洗个枣嘛。答：你是不是想女人想疯了，要不要我在朋友昭告天下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春暖花开奔你而来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲜花为你开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随风奔跑，自由是方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他盛大登场，打断了完美谢幕，然后惊鸿过膝魅惑到现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗澡都不让我看，见外了呗，不爱了呗，那我走，终究是一片真心错付了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你是做什么的？我是喂猪的。--- 对，你愿意做我的猪吗？---所以说你愿意做我的猪吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你说什么？400？你要300干什么？我只有200哦，给你100吧，转过去了哈？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">帮我个忙好不好？我想让你帮我生个小孩，来维持我们兄弟的感情 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜深人静的时候我好想你</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花儿为什么这么红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土豆哪里去挖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次约会怎么不说话啊？嗯我不太会跟男生说话，有点嘴瓢。--这有什么的，不用紧张，放轻松，想说什么就说什么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我就站在你面前，你看我是否像从前</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -118,12 +170,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -426,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:A28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -510,6 +565,71 @@
     <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/humor/customer-service.xlsx
+++ b/humor/customer-service.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="高大上" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,124 +16,142 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>祝你生活愉快，再见</t>
   </si>
   <si>
     <t>借月光与你对望</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ok，噶得</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>问:锦锦，咱中午吃啥呀？答:锦锦是谁？问：哎呀，玩呢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>你一边拉屎一边吃饭，请问你多长时间能吃饱？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好嘎，哇塞，卧槽</t>
   </si>
   <si>
     <t>如果你脑袋里想的都是对的，那为什么你口袋里没有你想要的。导致人生悲剧的核心原因，你一直在坚持一个错误的想法，还依然坚信它是对的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>给你讲个感动的故事：陆陆只喝水不吃饭，只要喝一个月的水，我就可以给你买一双鞋了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好嘎，哇塞，卧槽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>撒优那拉=再见</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哒咩，哒咩，哒咩哟，嗯，哼</t>
   </si>
   <si>
     <t>冇哇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哒咩，哒咩，哒咩哟，嗯，哼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>醉翁之意不在酒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>问：500。答：300。问：不能再少了。答：你拿钱干嘛。问：我要去买吃的。答：可以啊，那你给我卖个萌。问：不可能，你知道我是我hello kitty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>穿起来真有劲，穿个jk制服加黑丝，哎，人家穿都挺气质，你穿怎么有股骚劲呢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>问：你帮我洗个枣吧。答：不可以。问：帮我洗个枣嘛。答：你是不是想女人想疯了，要不要我在朋友昭告天下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>春暖花开奔你而来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>鲜花为你开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>随风奔跑，自由是方向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>他盛大登场，打断了完美谢幕，然后惊鸿过膝魅惑到现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>洗澡都不让我看，见外了呗，不爱了呗，那我走，终究是一片真心错付了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你说什么？400？你要300干什么？我只有200哦，给你100吧，转过去了哈？</t>
   </si>
   <si>
     <t>你是做什么的？我是喂猪的。--- 对，你愿意做我的猪吗？---所以说你愿意做我的猪吗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你说什么？400？你要300干什么？我只有200哦，给你100吧，转过去了哈？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">帮我个忙好不好？我想让你帮我生个小孩，来维持我们兄弟的感情 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>夜深人静的时候我好想你</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>花儿为什么这么红</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>土豆哪里去挖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>第一次约会怎么不说话啊？嗯我不太会跟男生说话，有点嘴瓢。--这有什么的，不用紧张，放轻松，想说什么就说什么</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>我就站在你面前，你看我是否像从前</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今晚的月亮好美，哥哥也是</t>
+  </si>
+  <si>
+    <t>刷抖音</t>
+  </si>
+  <si>
+    <t>通过域外平台寻找目标客户并做记录</t>
+  </si>
+  <si>
+    <t>饮水机换通水</t>
+  </si>
+  <si>
+    <t>协助部门同事完成日常运营工作</t>
+  </si>
+  <si>
+    <t>饭菜难吃</t>
+  </si>
+  <si>
+    <t>为公司发展提出合理化建议</t>
+  </si>
+  <si>
+    <t>睡两个小时</t>
+  </si>
+  <si>
+    <t>在工作之余积极参加集体活动放松身心</t>
+  </si>
+  <si>
+    <t>聊天</t>
+  </si>
+  <si>
+    <t>与潜在目标客户进行友好交流</t>
+  </si>
+  <si>
+    <t>自拍</t>
+  </si>
+  <si>
+    <t>深刻认识到了自己的不足并加以改正邀请大家监督</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,21 +160,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -164,9 +506,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -181,10 +765,57 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -475,194 +1106,258 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="150.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="150.62962962963" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
     </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="50.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/humor/customer-service.xlsx
+++ b/humor/customer-service.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>祝你生活愉快，再见</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>今晚的月亮好美，哥哥也是</t>
+  </si>
+  <si>
+    <t>高大威猛又帅气</t>
   </si>
   <si>
     <t>刷抖音</t>
@@ -147,8 +150,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -160,23 +163,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,52 +232,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,6 +279,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -289,16 +300,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,13 +316,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,169 +478,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,16 +511,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,17 +540,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,6 +556,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -593,17 +607,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -612,10 +615,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -624,33 +627,33 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -660,7 +663,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -669,88 +672,88 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1112,10 +1115,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A29"/>
+  <dimension ref="A1:A30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1266,6 +1269,11 @@
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1292,50 +1300,50 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/humor/customer-service.xlsx
+++ b/humor/customer-service.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>祝你生活愉快，再见</t>
   </si>
@@ -106,6 +106,30 @@
   </si>
   <si>
     <t>高大威猛又帅气</t>
+  </si>
+  <si>
+    <t>我一般不笑，除非忍不住</t>
+  </si>
+  <si>
+    <t>很好，我很喜欢</t>
+  </si>
+  <si>
+    <t>宝宝有花粉，美如蝴蝶的你要来采花粉嘛</t>
+  </si>
+  <si>
+    <t>既然你不会再重拾守护之剑，那么由我来</t>
+  </si>
+  <si>
+    <t>遥不可及的梦</t>
+  </si>
+  <si>
+    <t>有病，你忘记吃药了嘛？</t>
+  </si>
+  <si>
+    <t>可以商量***吗？</t>
+  </si>
+  <si>
+    <t>做了一个很长很长的梦</t>
   </si>
   <si>
     <t>刷抖音</t>
@@ -149,9 +173,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -163,6 +187,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -171,83 +247,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,46 +286,46 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,13 +340,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,37 +424,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,127 +520,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,21 +531,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -540,13 +549,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,17 +573,28 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,10 +639,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -627,133 +651,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1115,10 +1139,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A30"/>
+  <dimension ref="A1:A38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1274,6 +1298,46 @@
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1300,50 +1364,50 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/humor/customer-service.xlsx
+++ b/humor/customer-service.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="8820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="高大上" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="称呼" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>祝你生活愉快，再见</t>
   </si>
@@ -132,6 +132,21 @@
     <t>做了一个很长很长的梦</t>
   </si>
   <si>
+    <t>嘴上积德</t>
+  </si>
+  <si>
+    <t>花前月下，共赴良宵</t>
+  </si>
+  <si>
+    <t>giao</t>
+  </si>
+  <si>
+    <t>他喵的</t>
+  </si>
+  <si>
+    <t>得脱光衣服再打</t>
+  </si>
+  <si>
     <t>刷抖音</t>
   </si>
   <si>
@@ -166,6 +181,24 @@
   </si>
   <si>
     <t>深刻认识到了自己的不足并加以改正邀请大家监督</t>
+  </si>
+  <si>
+    <t>小妖精</t>
+  </si>
+  <si>
+    <t>马路杀手</t>
+  </si>
+  <si>
+    <t>楚兄</t>
+  </si>
+  <si>
+    <t>同志</t>
+  </si>
+  <si>
+    <t>师哥</t>
+  </si>
+  <si>
+    <t>剑圣的传人</t>
   </si>
 </sst>
 </file>
@@ -173,10 +206,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -187,15 +220,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -203,6 +243,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -216,8 +277,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,9 +287,33 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -239,39 +325,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,44 +363,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -340,13 +373,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,6 +433,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -376,49 +457,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,19 +517,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,73 +547,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,6 +564,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -549,30 +606,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -580,21 +613,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,11 +641,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,10 +672,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -651,133 +684,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1139,10 +1172,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A38"/>
+  <dimension ref="A1:A43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1338,6 +1371,31 @@
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1364,50 +1422,50 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1420,14 +1478,48 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A2:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>
+  <cols>
+    <col min="1" max="1" width="30.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/humor/customer-service.xlsx
+++ b/humor/customer-service.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="8820"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="高大上" sheetId="2" r:id="rId2"/>
     <sheet name="称呼" sheetId="3" r:id="rId3"/>
+    <sheet name="打招呼" sheetId="4" r:id="rId4"/>
+    <sheet name="安慰" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>祝你生活愉快，再见</t>
   </si>
@@ -199,6 +201,36 @@
   </si>
   <si>
     <t>剑圣的传人</t>
+  </si>
+  <si>
+    <t>你加我等于什么？</t>
+  </si>
+  <si>
+    <t>糖果和我，谁更甜蜜?</t>
+  </si>
+  <si>
+    <t>巧了，宝宝是小老虎饲养员呢</t>
+  </si>
+  <si>
+    <t>会撒娇八连吗</t>
+  </si>
+  <si>
+    <t>你是什么品种的**？</t>
+  </si>
+  <si>
+    <t>今晚可以去你家蹭饭吗</t>
+  </si>
+  <si>
+    <t>你的奶瓶呢</t>
+  </si>
+  <si>
+    <t>摸摸头</t>
+  </si>
+  <si>
+    <t>抱抱你</t>
+  </si>
+  <si>
+    <t>辛苦了</t>
   </si>
 </sst>
 </file>
@@ -206,15 +238,104 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -228,20 +349,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -249,29 +380,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,85 +395,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -373,19 +405,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,7 +513,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,151 +585,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,6 +596,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -585,33 +656,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -641,25 +686,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -675,7 +707,7 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -684,133 +716,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1174,8 +1206,8 @@
   <sheetPr/>
   <dimension ref="A1:A43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1524,4 +1556,94 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:A8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7"/>
+  <cols>
+    <col min="1" max="1" width="80.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3"/>
+  <cols>
+    <col min="1" max="1" width="50.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/humor/customer-service.xlsx
+++ b/humor/customer-service.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="3"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>祝你生活愉快，再见</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>得脱光衣服再打</t>
+  </si>
+  <si>
+    <t>欢迎继续收听你的月亮我的心，好哥哥就是我，我就是你的好哥哥</t>
   </si>
   <si>
     <t>刷抖音</t>
@@ -238,10 +241,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -253,9 +256,69 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -266,15 +329,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,21 +368,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -312,28 +377,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -341,9 +384,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,45 +398,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -405,31 +408,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,19 +570,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,121 +582,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,32 +602,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -653,20 +637,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -688,11 +669,33 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -704,10 +707,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -716,133 +719,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1204,10 +1207,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A43"/>
+  <dimension ref="A1:A44"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1428,6 +1431,11 @@
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1443,7 +1451,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="1"/>
@@ -1454,50 +1462,50 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1523,32 +1531,32 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1563,8 +1571,8 @@
   <sheetPr/>
   <dimension ref="A2:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7"/>
@@ -1574,37 +1582,37 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1629,17 +1637,17 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/humor/customer-service.xlsx
+++ b/humor/customer-service.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>祝你生活愉快，再见</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>欢迎继续收听你的月亮我的心，好哥哥就是我，我就是你的好哥哥</t>
+  </si>
+  <si>
+    <t>侮辱人的方式有很多种，你为什么偏偏向我借钱，像你那么优秀都没有，难道我会有吗</t>
   </si>
   <si>
     <t>刷抖音</t>
@@ -241,10 +244,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -256,7 +259,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,14 +310,70 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,55 +387,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,37 +401,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -408,37 +411,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,145 +585,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,6 +602,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -622,6 +640,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -633,21 +669,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,15 +688,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -690,15 +702,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -707,10 +710,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -719,133 +722,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1207,10 +1210,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A44"/>
+  <dimension ref="A1:A45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1436,6 +1439,11 @@
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1462,50 +1470,50 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1531,32 +1539,32 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1582,37 +1590,37 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1637,17 +1645,17 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/humor/customer-service.xlsx
+++ b/humor/customer-service.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>祝你生活愉快，再见</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>侮辱人的方式有很多种，你为什么偏偏向我借钱，像你那么优秀都没有，难道我会有吗</t>
+  </si>
+  <si>
+    <t>nice and cool</t>
   </si>
   <si>
     <t>刷抖音</t>
@@ -244,10 +247,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -259,7 +262,99 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,29 +368,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,93 +392,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -411,61 +414,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,109 +582,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,22 +623,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -659,16 +657,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -688,17 +686,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -710,10 +713,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -722,133 +725,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1210,10 +1213,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A45"/>
+  <dimension ref="A1:A46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1444,6 +1447,11 @@
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1470,50 +1478,50 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1539,32 +1547,32 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1590,37 +1598,37 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1645,17 +1653,17 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
